--- a/InputData/land/ICoLUPpUA/Impl Cost of Land Use Policies per Unit Area.xlsx
+++ b/InputData/land/ICoLUPpUA/Impl Cost of Land Use Policies per Unit Area.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jonah\Documents\EPS Model\.eps-oregon-1.4.3.2 - WIP\InputData\land\ICoLUPpUA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-oregon\InputData\land\ICoLUPpUA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD73EAA-132E-425F-BA2F-64AC91B22415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -674,7 +673,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1014,6 +1013,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1041,20 +1044,16 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Body: normal cell" xfId="2"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
+    <cellStyle name="Footnotes: top row" xfId="4"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Parent row" xfId="6"/>
+    <cellStyle name="Table title" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1145,23 +1144,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1197,23 +1179,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1389,25 +1354,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="78.140625" customWidth="1"/>
+    <col min="2" max="2" width="78.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1415,127 +1380,127 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>1990</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1.7589999999999999</v>
       </c>
@@ -1543,7 +1508,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1.4330000000000001</v>
       </c>
@@ -1551,26 +1516,26 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B16" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -1578,7 +1543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -1586,20 +1551,20 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.3984375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1613,7 +1578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1628,7 +1593,7 @@
         <v>3.6999999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1643,7 +1608,7 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1658,7 +1623,7 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1673,7 +1638,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1688,7 +1653,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1703,7 +1668,7 @@
         <v>4.3999999999999986</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1718,7 +1683,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1733,7 +1698,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1748,27 +1713,27 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="41">
         <v>8</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="41">
         <v>4.8</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="41">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
         <f>D12</f>
         <v>3.2</v>
@@ -1777,7 +1742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <f>A15*About!A33</f>
         <v>5.6288</v>
@@ -1792,7 +1757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1800,27 +1765,27 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="39" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="39" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="39"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <f>SUMPRODUCT('County Data'!J12:J47,'County Data'!T12:T47)/SUM('County Data'!T12:T47)</f>
         <v>300.48013072071734</v>
@@ -1829,7 +1794,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <f>A5*About!A34</f>
         <v>430.58802732278798</v>
@@ -1844,7 +1809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Y106"/>
   <sheetViews>
@@ -1852,31 +1817,31 @@
       <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.265625" customWidth="1"/>
+    <col min="2" max="2" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="13.73046875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="25.85546875" customWidth="1"/>
-    <col min="14" max="15" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.265625" customWidth="1"/>
+    <col min="10" max="10" width="25.3984375" customWidth="1"/>
+    <col min="11" max="11" width="15.265625" customWidth="1"/>
+    <col min="12" max="12" width="13.265625" customWidth="1"/>
+    <col min="13" max="13" width="25.86328125" customWidth="1"/>
+    <col min="14" max="15" width="15.86328125" customWidth="1"/>
     <col min="16" max="16" width="22" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" customWidth="1"/>
-    <col min="25" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.3984375" customWidth="1"/>
+    <col min="19" max="19" width="12.3984375" customWidth="1"/>
+    <col min="20" max="20" width="10.73046875" customWidth="1"/>
+    <col min="25" max="25" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -1899,7 +1864,7 @@
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
@@ -1920,37 +1885,37 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
@@ -1972,46 +1937,46 @@
       <c r="S9" s="8"/>
       <c r="Y9" s="11"/>
     </row>
-    <row r="10" spans="1:25" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="43" t="s">
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="43" t="s">
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="43" t="s">
+      <c r="J10" s="47"/>
+      <c r="K10" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="44"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="46" t="s">
+      <c r="L10" s="46"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="O10" s="47"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="40" t="s">
+      <c r="O10" s="49"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="42"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="44"/>
       <c r="Y10" s="11"/>
     </row>
-    <row r="11" spans="1:25" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16" t="s">
@@ -2070,7 +2035,7 @@
       </c>
       <c r="Y11" s="11"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A12" s="25">
         <v>41001</v>
       </c>
@@ -2106,7 +2071,7 @@
         <v>13.56812</v>
       </c>
       <c r="M12" s="27">
-        <f>K12-L12</f>
+        <f t="shared" ref="M12:M47" si="0">K12-L12</f>
         <v>1.0326299999999993</v>
       </c>
       <c r="N12" s="29">
@@ -2128,12 +2093,12 @@
         <v>277230</v>
       </c>
       <c r="T12" s="31">
-        <f>SUM(Q12:S12)</f>
+        <f t="shared" ref="T12:T47" si="1">SUM(Q12:S12)</f>
         <v>291830</v>
       </c>
       <c r="Y12" s="11"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A13" s="25">
         <v>41003</v>
       </c>
@@ -2169,7 +2134,7 @@
         <v>35.163310000000003</v>
       </c>
       <c r="M13" s="27">
-        <f>K13-L13</f>
+        <f t="shared" si="0"/>
         <v>10.607479999999995</v>
       </c>
       <c r="N13" s="29">
@@ -2191,12 +2156,12 @@
         <v>38180</v>
       </c>
       <c r="T13" s="31">
-        <f>SUM(Q13:S13)</f>
+        <f t="shared" si="1"/>
         <v>136450</v>
       </c>
       <c r="Y13" s="11"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A14" s="25">
         <v>41005</v>
       </c>
@@ -2232,7 +2197,7 @@
         <v>39.004530000000003</v>
       </c>
       <c r="M14" s="27">
-        <f>K14-L14</f>
+        <f t="shared" si="0"/>
         <v>6.4503799999999956</v>
       </c>
       <c r="N14" s="29">
@@ -2254,12 +2219,12 @@
         <v>72740</v>
       </c>
       <c r="T14" s="31">
-        <f>SUM(Q14:S14)</f>
+        <f t="shared" si="1"/>
         <v>234400</v>
       </c>
       <c r="Y14" s="11"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A15" s="25">
         <v>41007</v>
       </c>
@@ -2295,7 +2260,7 @@
         <v>33.022709999999996</v>
       </c>
       <c r="M15" s="27">
-        <f>K15-L15</f>
+        <f t="shared" si="0"/>
         <v>11.625160000000001</v>
       </c>
       <c r="N15" s="29">
@@ -2317,12 +2282,12 @@
         <v>67400</v>
       </c>
       <c r="T15" s="31">
-        <f>SUM(Q15:S15)</f>
+        <f t="shared" si="1"/>
         <v>70360</v>
       </c>
       <c r="Y15" s="11"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16" s="25">
         <v>41009</v>
       </c>
@@ -2358,7 +2323,7 @@
         <v>32.752009999999999</v>
       </c>
       <c r="M16" s="27">
-        <f>K16-L16</f>
+        <f t="shared" si="0"/>
         <v>11.61936</v>
       </c>
       <c r="N16" s="29">
@@ -2380,12 +2345,12 @@
         <v>102610</v>
       </c>
       <c r="T16" s="31">
-        <f>SUM(Q16:S16)</f>
+        <f t="shared" si="1"/>
         <v>122430</v>
       </c>
       <c r="Y16" s="11"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" s="25">
         <v>41011</v>
       </c>
@@ -2421,7 +2386,7 @@
         <v>34.782690000000002</v>
       </c>
       <c r="M17" s="27">
-        <f>K17-L17</f>
+        <f t="shared" si="0"/>
         <v>10.67163</v>
       </c>
       <c r="N17" s="29">
@@ -2443,12 +2408,12 @@
         <v>175060</v>
       </c>
       <c r="T17" s="31">
-        <f>SUM(Q17:S17)</f>
+        <f t="shared" si="1"/>
         <v>200440</v>
       </c>
       <c r="Y17" s="11"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" s="25">
         <v>41013</v>
       </c>
@@ -2484,7 +2449,7 @@
         <v>11.846109999999999</v>
       </c>
       <c r="M18" s="27">
-        <f>K18-L18</f>
+        <f t="shared" si="0"/>
         <v>0.7317600000000013</v>
       </c>
       <c r="N18" s="29">
@@ -2506,12 +2471,12 @@
         <v>239250</v>
       </c>
       <c r="T18" s="31">
-        <f>SUM(Q18:S18)</f>
+        <f t="shared" si="1"/>
         <v>239590</v>
       </c>
       <c r="Y18" s="11"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" s="25">
         <v>41015</v>
       </c>
@@ -2547,7 +2512,7 @@
         <v>35.3523</v>
       </c>
       <c r="M19" s="27">
-        <f>K19-L19</f>
+        <f t="shared" si="0"/>
         <v>11.326410000000003</v>
       </c>
       <c r="N19" s="29">
@@ -2569,12 +2534,12 @@
         <v>73410</v>
       </c>
       <c r="T19" s="31">
-        <f>SUM(Q19:S19)</f>
+        <f t="shared" si="1"/>
         <v>77740</v>
       </c>
       <c r="Y19" s="11"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20" s="25">
         <v>41017</v>
       </c>
@@ -2610,7 +2575,7 @@
         <v>11.414149999999999</v>
       </c>
       <c r="M20" s="27">
-        <f>K20-L20</f>
+        <f t="shared" si="0"/>
         <v>0.6745100000000015</v>
       </c>
       <c r="N20" s="29">
@@ -2632,12 +2597,12 @@
         <v>22590</v>
       </c>
       <c r="T20" s="31">
-        <f>SUM(Q20:S20)</f>
+        <f t="shared" si="1"/>
         <v>24460</v>
       </c>
       <c r="Y20" s="11"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21" s="25">
         <v>41019</v>
       </c>
@@ -2673,7 +2638,7 @@
         <v>40.832790000000003</v>
       </c>
       <c r="M21" s="27">
-        <f>K21-L21</f>
+        <f t="shared" si="0"/>
         <v>5.3932799999999972</v>
       </c>
       <c r="N21" s="29">
@@ -2695,12 +2660,12 @@
         <v>361510</v>
       </c>
       <c r="T21" s="31">
-        <f>SUM(Q21:S21)</f>
+        <f t="shared" si="1"/>
         <v>524050</v>
       </c>
       <c r="Y21" s="11"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22" s="25">
         <v>41021</v>
       </c>
@@ -2736,7 +2701,7 @@
         <v>18.069859999999998</v>
       </c>
       <c r="M22" s="27">
-        <f>K22-L22</f>
+        <f t="shared" si="0"/>
         <v>1.7773600000000016</v>
       </c>
       <c r="N22" s="29">
@@ -2758,12 +2723,12 @@
         <v>9510</v>
       </c>
       <c r="T22" s="31">
-        <f>SUM(Q22:S22)</f>
+        <f t="shared" si="1"/>
         <v>9580</v>
       </c>
       <c r="Y22" s="11"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A23" s="25">
         <v>41023</v>
       </c>
@@ -2799,7 +2764,7 @@
         <v>13.01454</v>
       </c>
       <c r="M23" s="27">
-        <f>K23-L23</f>
+        <f t="shared" si="0"/>
         <v>0.87782999999999944</v>
       </c>
       <c r="N23" s="29">
@@ -2821,12 +2786,12 @@
         <v>439660</v>
       </c>
       <c r="T23" s="31">
-        <f>SUM(Q23:S23)</f>
+        <f t="shared" si="1"/>
         <v>441680</v>
       </c>
       <c r="Y23" s="11"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A24" s="25">
         <v>41025</v>
       </c>
@@ -2862,7 +2827,7 @@
         <v>10.67489</v>
       </c>
       <c r="M24" s="27">
-        <f>K24-L24</f>
+        <f t="shared" si="0"/>
         <v>0.679450000000001</v>
       </c>
       <c r="N24" s="29">
@@ -2884,12 +2849,12 @@
         <v>196360</v>
       </c>
       <c r="T24" s="31">
-        <f>SUM(Q24:S24)</f>
+        <f t="shared" si="1"/>
         <v>196480</v>
       </c>
       <c r="Y24" s="11"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25" s="25">
         <v>41027</v>
       </c>
@@ -2925,7 +2890,7 @@
         <v>33.85125</v>
       </c>
       <c r="M25" s="27">
-        <f>K25-L25</f>
+        <f t="shared" si="0"/>
         <v>10.18844</v>
       </c>
       <c r="N25" s="29">
@@ -2947,12 +2912,12 @@
         <v>21770</v>
       </c>
       <c r="T25" s="31">
-        <f>SUM(Q25:S25)</f>
+        <f t="shared" si="1"/>
         <v>46290</v>
       </c>
       <c r="Y25" s="11"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" s="25">
         <v>41029</v>
       </c>
@@ -2988,7 +2953,7 @@
         <v>42.000590000000003</v>
       </c>
       <c r="M26" s="27">
-        <f>K26-L26</f>
+        <f t="shared" si="0"/>
         <v>4.0098500000000001</v>
       </c>
       <c r="N26" s="29">
@@ -3010,12 +2975,12 @@
         <v>300260</v>
       </c>
       <c r="T26" s="31">
-        <f>SUM(Q26:S26)</f>
+        <f t="shared" si="1"/>
         <v>378230</v>
       </c>
       <c r="Y26" s="11"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A27" s="25">
         <v>41031</v>
       </c>
@@ -3051,7 +3016,7 @@
         <v>14.771929999999999</v>
       </c>
       <c r="M27" s="27">
-        <f>K27-L27</f>
+        <f t="shared" si="0"/>
         <v>1.2017199999999999</v>
       </c>
       <c r="N27" s="29">
@@ -3073,12 +3038,12 @@
         <v>35890</v>
       </c>
       <c r="T27" s="31">
-        <f>SUM(Q27:S27)</f>
+        <f t="shared" si="1"/>
         <v>35890</v>
       </c>
       <c r="Y27" s="11"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" s="25">
         <v>41033</v>
       </c>
@@ -3114,7 +3079,7 @@
         <v>34.829749999999997</v>
       </c>
       <c r="M28" s="27">
-        <f>K28-L28</f>
+        <f t="shared" si="0"/>
         <v>11.512270000000001</v>
       </c>
       <c r="N28" s="29">
@@ -3136,12 +3101,12 @@
         <v>92690</v>
       </c>
       <c r="T28" s="31">
-        <f>SUM(Q28:S28)</f>
+        <f t="shared" si="1"/>
         <v>112220</v>
       </c>
       <c r="Y28" s="11"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A29" s="25">
         <v>41035</v>
       </c>
@@ -3177,7 +3142,7 @@
         <v>11.33117</v>
       </c>
       <c r="M29" s="27">
-        <f>K29-L29</f>
+        <f t="shared" si="0"/>
         <v>0.70841000000000065</v>
       </c>
       <c r="N29" s="29">
@@ -3199,12 +3164,12 @@
         <v>362500</v>
       </c>
       <c r="T29" s="31">
-        <f>SUM(Q29:S29)</f>
+        <f t="shared" si="1"/>
         <v>441830</v>
       </c>
       <c r="Y29" s="11"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A30" s="25">
         <v>41037</v>
       </c>
@@ -3240,7 +3205,7 @@
         <v>10.58113</v>
       </c>
       <c r="M30" s="27">
-        <f>K30-L30</f>
+        <f t="shared" si="0"/>
         <v>0.66779999999999973</v>
       </c>
       <c r="N30" s="29">
@@ -3262,12 +3227,12 @@
         <v>192810</v>
       </c>
       <c r="T30" s="31">
-        <f>SUM(Q30:S30)</f>
+        <f t="shared" si="1"/>
         <v>198890</v>
       </c>
       <c r="Y30" s="11"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" s="25">
         <v>41039</v>
       </c>
@@ -3305,7 +3270,7 @@
         <v>41.351329999999997</v>
       </c>
       <c r="M31" s="27">
-        <f>K31-L31</f>
+        <f t="shared" si="0"/>
         <v>5.4691500000000062</v>
       </c>
       <c r="N31" s="29">
@@ -3327,12 +3292,12 @@
         <v>229970</v>
       </c>
       <c r="T31" s="31">
-        <f>SUM(Q31:S31)</f>
+        <f t="shared" si="1"/>
         <v>407380</v>
       </c>
       <c r="Y31" s="11"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" s="25">
         <v>41041</v>
       </c>
@@ -3368,7 +3333,7 @@
         <v>31.946020000000001</v>
       </c>
       <c r="M32" s="27">
-        <f>K32-L32</f>
+        <f t="shared" si="0"/>
         <v>13.485249999999997</v>
       </c>
       <c r="N32" s="29">
@@ -3390,12 +3355,12 @@
         <v>90440</v>
       </c>
       <c r="T32" s="31">
-        <f>SUM(Q32:S32)</f>
+        <f t="shared" si="1"/>
         <v>94130</v>
       </c>
       <c r="Y32" s="11"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" s="25">
         <v>41043</v>
       </c>
@@ -3433,7 +3398,7 @@
         <v>38.90419</v>
       </c>
       <c r="M33" s="27">
-        <f>K33-L33</f>
+        <f t="shared" si="0"/>
         <v>7.2901999999999987</v>
       </c>
       <c r="N33" s="29">
@@ -3455,12 +3420,12 @@
         <v>139760</v>
       </c>
       <c r="T33" s="31">
-        <f>SUM(Q33:S33)</f>
+        <f t="shared" si="1"/>
         <v>484410</v>
       </c>
       <c r="Y33" s="11"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A34" s="25">
         <v>41045</v>
       </c>
@@ -3496,7 +3461,7 @@
         <v>21.418199999999999</v>
       </c>
       <c r="M34" s="27">
-        <f>K34-L34</f>
+        <f t="shared" si="0"/>
         <v>1.8293600000000012</v>
       </c>
       <c r="N34" s="29">
@@ -3518,12 +3483,12 @@
         <v>109430</v>
       </c>
       <c r="T34" s="31">
-        <f>SUM(Q34:S34)</f>
+        <f t="shared" si="1"/>
         <v>109530</v>
       </c>
       <c r="Y34" s="11"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A35" s="25">
         <v>41047</v>
       </c>
@@ -3561,7 +3526,7 @@
         <v>38.143189999999997</v>
       </c>
       <c r="M35" s="27">
-        <f>K35-L35</f>
+        <f t="shared" si="0"/>
         <v>7.2771000000000043</v>
       </c>
       <c r="N35" s="29">
@@ -3583,12 +3548,12 @@
         <v>41530</v>
       </c>
       <c r="T35" s="31">
-        <f>SUM(Q35:S35)</f>
+        <f t="shared" si="1"/>
         <v>313740</v>
       </c>
       <c r="Y35" s="11"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A36" s="25">
         <v>41049</v>
       </c>
@@ -3624,7 +3589,7 @@
         <v>15.54275</v>
       </c>
       <c r="M36" s="27">
-        <f>K36-L36</f>
+        <f t="shared" si="0"/>
         <v>0.9610700000000012</v>
       </c>
       <c r="N36" s="29">
@@ -3646,12 +3611,12 @@
         <v>103890</v>
       </c>
       <c r="T36" s="31">
-        <f>SUM(Q36:S36)</f>
+        <f t="shared" si="1"/>
         <v>105750</v>
       </c>
       <c r="Y36" s="11"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A37" s="25">
         <v>41051</v>
       </c>
@@ -3687,7 +3652,7 @@
         <v>35.85425</v>
       </c>
       <c r="M37" s="27">
-        <f>K37-L37</f>
+        <f t="shared" si="0"/>
         <v>8.124769999999998</v>
       </c>
       <c r="N37" s="29">
@@ -3709,12 +3674,12 @@
         <v>9800</v>
       </c>
       <c r="T37" s="31">
-        <f>SUM(Q37:S37)</f>
+        <f t="shared" si="1"/>
         <v>34770</v>
       </c>
       <c r="Y37" s="11"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A38" s="25">
         <v>41053</v>
       </c>
@@ -3752,7 +3717,7 @@
         <v>35.804639999999999</v>
       </c>
       <c r="M38" s="27">
-        <f>K38-L38</f>
+        <f t="shared" si="0"/>
         <v>11.92512</v>
       </c>
       <c r="N38" s="29">
@@ -3774,12 +3739,12 @@
         <v>58010</v>
       </c>
       <c r="T38" s="31">
-        <f>SUM(Q38:S38)</f>
+        <f t="shared" si="1"/>
         <v>212850</v>
       </c>
       <c r="Y38" s="11"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A39" s="25">
         <v>41055</v>
       </c>
@@ -3815,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="27">
-        <f>K39-L39</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N39" s="29">
@@ -3837,12 +3802,12 @@
         <v>0</v>
       </c>
       <c r="T39" s="31">
-        <f>SUM(Q39:S39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y39" s="11"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A40" s="25">
         <v>41057</v>
       </c>
@@ -3878,7 +3843,7 @@
         <v>32.963590000000003</v>
       </c>
       <c r="M40" s="27">
-        <f>K40-L40</f>
+        <f t="shared" si="0"/>
         <v>11.734459999999999</v>
       </c>
       <c r="N40" s="29">
@@ -3900,12 +3865,12 @@
         <v>46710</v>
       </c>
       <c r="T40" s="31">
-        <f>SUM(Q40:S40)</f>
+        <f t="shared" si="1"/>
         <v>62090</v>
       </c>
       <c r="Y40" s="11"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A41" s="25">
         <v>41059</v>
       </c>
@@ -3941,7 +3906,7 @@
         <v>15.9772</v>
       </c>
       <c r="M41" s="27">
-        <f>K41-L41</f>
+        <f t="shared" si="0"/>
         <v>1.2232500000000002</v>
       </c>
       <c r="N41" s="29">
@@ -3963,12 +3928,12 @@
         <v>319810</v>
       </c>
       <c r="T41" s="31">
-        <f>SUM(Q41:S41)</f>
+        <f t="shared" si="1"/>
         <v>395550</v>
       </c>
       <c r="Y41" s="11"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A42" s="25">
         <v>41061</v>
       </c>
@@ -4004,7 +3969,7 @@
         <v>13.8302</v>
       </c>
       <c r="M42" s="27">
-        <f>K42-L42</f>
+        <f t="shared" si="0"/>
         <v>0.87921000000000049</v>
       </c>
       <c r="N42" s="29">
@@ -4026,12 +3991,12 @@
         <v>205570</v>
       </c>
       <c r="T42" s="31">
-        <f>SUM(Q42:S42)</f>
+        <f t="shared" si="1"/>
         <v>281240</v>
       </c>
       <c r="Y42" s="11"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A43" s="25">
         <v>41063</v>
       </c>
@@ -4069,7 +4034,7 @@
         <v>17.136769999999999</v>
       </c>
       <c r="M43" s="27">
-        <f>K43-L43</f>
+        <f t="shared" si="0"/>
         <v>1.3871900000000004</v>
       </c>
       <c r="N43" s="29">
@@ -4091,12 +4056,12 @@
         <v>407840</v>
       </c>
       <c r="T43" s="31">
-        <f>SUM(Q43:S43)</f>
+        <f t="shared" si="1"/>
         <v>461150</v>
       </c>
       <c r="Y43" s="11"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A44" s="25">
         <v>41065</v>
       </c>
@@ -4132,7 +4097,7 @@
         <v>14.810739999999999</v>
       </c>
       <c r="M44" s="27">
-        <f>K44-L44</f>
+        <f t="shared" si="0"/>
         <v>2.8549100000000003</v>
       </c>
       <c r="N44" s="29">
@@ -4154,12 +4119,12 @@
         <v>32790</v>
       </c>
       <c r="T44" s="31">
-        <f>SUM(Q44:S44)</f>
+        <f t="shared" si="1"/>
         <v>33360</v>
       </c>
       <c r="Y44" s="11"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A45" s="25">
         <v>41067</v>
       </c>
@@ -4197,7 +4162,7 @@
         <v>32.572339999999997</v>
       </c>
       <c r="M45" s="27">
-        <f>K45-L45</f>
+        <f t="shared" si="0"/>
         <v>12.138650000000005</v>
       </c>
       <c r="N45" s="29">
@@ -4219,12 +4184,12 @@
         <v>51500</v>
       </c>
       <c r="T45" s="31">
-        <f>SUM(Q45:S45)</f>
+        <f t="shared" si="1"/>
         <v>163660</v>
       </c>
       <c r="Y45" s="11"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A46" s="25">
         <v>41069</v>
       </c>
@@ -4260,7 +4225,7 @@
         <v>14.15949</v>
       </c>
       <c r="M46" s="27">
-        <f>K46-L46</f>
+        <f t="shared" si="0"/>
         <v>0.89072999999999958</v>
       </c>
       <c r="N46" s="29">
@@ -4282,12 +4247,12 @@
         <v>154600</v>
       </c>
       <c r="T46" s="31">
-        <f>SUM(Q46:S46)</f>
+        <f t="shared" si="1"/>
         <v>156860</v>
       </c>
       <c r="Y46" s="11"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A47" s="14">
         <v>41071</v>
       </c>
@@ -4325,7 +4290,7 @@
         <v>32.357950000000002</v>
       </c>
       <c r="M47" s="34">
-        <f>K47-L47</f>
+        <f t="shared" si="0"/>
         <v>14.9664</v>
       </c>
       <c r="N47" s="36">
@@ -4347,12 +4312,12 @@
         <v>48830</v>
       </c>
       <c r="T47" s="15">
-        <f>SUM(Q47:S47)</f>
+        <f t="shared" si="1"/>
         <v>203970</v>
       </c>
       <c r="Y47" s="11"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -4373,7 +4338,7 @@
       <c r="S48" s="8"/>
       <c r="Y48" s="11"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>100</v>
       </c>
@@ -4396,7 +4361,7 @@
       <c r="S49" s="8"/>
       <c r="Y49" s="11"/>
     </row>
-    <row r="50" spans="1:25" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>101</v>
       </c>
@@ -4419,7 +4384,7 @@
       <c r="S50" s="8"/>
       <c r="Y50" s="11"/>
     </row>
-    <row r="51" spans="1:25" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>102</v>
       </c>
@@ -4442,7 +4407,7 @@
       <c r="S51" s="8"/>
       <c r="Y51" s="11"/>
     </row>
-    <row r="52" spans="1:25" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>103</v>
       </c>
@@ -4465,7 +4430,7 @@
       <c r="S52" s="8"/>
       <c r="Y52" s="11"/>
     </row>
-    <row r="53" spans="1:25" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>104</v>
       </c>
@@ -4488,7 +4453,7 @@
       <c r="S53" s="8"/>
       <c r="Y53" s="11"/>
     </row>
-    <row r="54" spans="1:25" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>105</v>
       </c>
@@ -4511,7 +4476,7 @@
       <c r="S54" s="8"/>
       <c r="Y54" s="11"/>
     </row>
-    <row r="55" spans="1:25" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>106</v>
       </c>
@@ -4534,7 +4499,7 @@
       <c r="S55" s="8"/>
       <c r="Y55" s="11"/>
     </row>
-    <row r="56" spans="1:25" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>107</v>
       </c>
@@ -4557,159 +4522,159 @@
       <c r="S56" s="8"/>
       <c r="Y56" s="11"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.45">
       <c r="Y57" s="11"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.45">
       <c r="Y58" s="11"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.45">
       <c r="Y59" s="11"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.45">
       <c r="Y60" s="11"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.45">
       <c r="Y61" s="11"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.45">
       <c r="Y62" s="11"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.45">
       <c r="Y63" s="11"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.45">
       <c r="Y64" s="11"/>
     </row>
-    <row r="65" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y65" s="11"/>
     </row>
-    <row r="66" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y66" s="11"/>
     </row>
-    <row r="67" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y67" s="11"/>
     </row>
-    <row r="68" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y68" s="11"/>
     </row>
-    <row r="69" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y69" s="11"/>
     </row>
-    <row r="70" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y70" s="11"/>
     </row>
-    <row r="71" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y71" s="11"/>
     </row>
-    <row r="72" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y72" s="11"/>
     </row>
-    <row r="73" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y73" s="11"/>
     </row>
-    <row r="74" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y74" s="11"/>
     </row>
-    <row r="75" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y75" s="11"/>
     </row>
-    <row r="76" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y76" s="11"/>
     </row>
-    <row r="77" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y77" s="11"/>
     </row>
-    <row r="78" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y78" s="11"/>
     </row>
-    <row r="79" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y79" s="11"/>
     </row>
-    <row r="80" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y80" s="11"/>
     </row>
-    <row r="81" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y81" s="11"/>
     </row>
-    <row r="82" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y82" s="11"/>
     </row>
-    <row r="83" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y83" s="11"/>
     </row>
-    <row r="84" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y84" s="11"/>
     </row>
-    <row r="85" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y85" s="11"/>
     </row>
-    <row r="86" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y86" s="11"/>
     </row>
-    <row r="87" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y87" s="11"/>
     </row>
-    <row r="88" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y88" s="11"/>
     </row>
-    <row r="89" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y89" s="11"/>
     </row>
-    <row r="90" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y90" s="11"/>
     </row>
-    <row r="91" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y91" s="11"/>
     </row>
-    <row r="92" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y92" s="11"/>
     </row>
-    <row r="93" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y93" s="11"/>
     </row>
-    <row r="94" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y94" s="11"/>
     </row>
-    <row r="95" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y95" s="11"/>
     </row>
-    <row r="96" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y96" s="11"/>
     </row>
-    <row r="97" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y97" s="11"/>
     </row>
-    <row r="98" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y98" s="11"/>
     </row>
-    <row r="99" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y99" s="11"/>
     </row>
-    <row r="100" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y100" s="11"/>
     </row>
-    <row r="101" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y101" s="11"/>
     </row>
-    <row r="102" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y102" s="11"/>
     </row>
-    <row r="103" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y103" s="11"/>
     </row>
-    <row r="104" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y104" s="11"/>
     </row>
-    <row r="105" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y105" s="11"/>
     </row>
-    <row r="106" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="25:25" x14ac:dyDescent="0.45">
       <c r="Y106" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:T11" xr:uid="{C3218BE9-89C8-4C6E-9CF4-CF504DEF74D2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:T3080">
+  <autoFilter ref="A11:T11">
+    <sortState ref="A12:T3080">
       <sortCondition ref="A11"/>
     </sortState>
   </autoFilter>
@@ -4726,28 +4691,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4755,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4764,7 +4729,7 @@
         <v>430.58802732278798</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4773,7 +4738,7 @@
         <v>5.6288</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4781,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -4789,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
